--- a/statistics_files/2022/2022.z.holds.down.xlsx
+++ b/statistics_files/2022/2022.z.holds.down.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20387"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFC0DFC-6C16-4B0E-AF27-B45CEDBF8450}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8DD162-4FEA-40B5-8F85-2F0FC48AC869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" activeTab="1" xr2:uid="{244C3219-FD27-42E2-BE40-F4C149EDCB96}"/>
   </bookViews>
@@ -742,16 +742,16 @@
                   <c:v>34859</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>35138</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>40666</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>35124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>34049</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1866,7 +1866,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A61"/>
+      <selection pane="bottomRight" activeCell="C59" sqref="C59:K59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3643,6 +3643,33 @@
       <c r="B56">
         <v>7</v>
       </c>
+      <c r="C56">
+        <v>35138</v>
+      </c>
+      <c r="D56">
+        <v>14754</v>
+      </c>
+      <c r="E56">
+        <v>1426</v>
+      </c>
+      <c r="F56">
+        <v>118</v>
+      </c>
+      <c r="G56">
+        <v>976</v>
+      </c>
+      <c r="H56">
+        <v>2520</v>
+      </c>
+      <c r="I56">
+        <v>150</v>
+      </c>
+      <c r="J56">
+        <v>11990</v>
+      </c>
+      <c r="K56">
+        <v>23148</v>
+      </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -3651,6 +3678,33 @@
       <c r="B57">
         <v>8</v>
       </c>
+      <c r="C57">
+        <v>40666</v>
+      </c>
+      <c r="D57">
+        <v>16594</v>
+      </c>
+      <c r="E57">
+        <v>1849</v>
+      </c>
+      <c r="F57">
+        <v>158</v>
+      </c>
+      <c r="G57">
+        <v>1075</v>
+      </c>
+      <c r="H57">
+        <v>3082</v>
+      </c>
+      <c r="I57">
+        <v>191</v>
+      </c>
+      <c r="J57">
+        <v>14873</v>
+      </c>
+      <c r="K57">
+        <v>25793</v>
+      </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -3659,6 +3713,33 @@
       <c r="B58">
         <v>9</v>
       </c>
+      <c r="C58">
+        <v>35124</v>
+      </c>
+      <c r="D58">
+        <v>15371</v>
+      </c>
+      <c r="E58">
+        <v>1649</v>
+      </c>
+      <c r="F58">
+        <v>155</v>
+      </c>
+      <c r="G58">
+        <v>997</v>
+      </c>
+      <c r="H58">
+        <v>2801</v>
+      </c>
+      <c r="I58">
+        <v>131</v>
+      </c>
+      <c r="J58">
+        <v>14981</v>
+      </c>
+      <c r="K58">
+        <v>20143</v>
+      </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
@@ -3666,6 +3747,33 @@
       </c>
       <c r="B59">
         <v>10</v>
+      </c>
+      <c r="C59">
+        <v>34049</v>
+      </c>
+      <c r="D59">
+        <v>14400</v>
+      </c>
+      <c r="E59">
+        <v>1437</v>
+      </c>
+      <c r="F59">
+        <v>150</v>
+      </c>
+      <c r="G59">
+        <v>1018</v>
+      </c>
+      <c r="H59">
+        <v>2605</v>
+      </c>
+      <c r="I59">
+        <v>210</v>
+      </c>
+      <c r="J59">
+        <v>15020</v>
+      </c>
+      <c r="K59">
+        <v>19029</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -3695,7 +3803,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:B22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3752,7 +3860,7 @@
         <v>33118</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">C3-D3</f>
+        <f t="shared" ref="E3:E13" si="0">C3-D3</f>
         <v>5727</v>
       </c>
     </row>
@@ -3854,7 +3962,11 @@
       </c>
       <c r="D8">
         <f>Sheet1!C56</f>
-        <v>0</v>
+        <v>35138</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>656</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -3871,7 +3983,11 @@
       </c>
       <c r="D9">
         <f>Sheet1!C57</f>
-        <v>0</v>
+        <v>40666</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-3005</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -3888,7 +4004,11 @@
       </c>
       <c r="D10">
         <f>Sheet1!C58</f>
-        <v>0</v>
+        <v>35124</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-207</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -3905,7 +4025,11 @@
       </c>
       <c r="D11">
         <f>Sheet1!C59</f>
-        <v>0</v>
+        <v>34049</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -3924,6 +4048,10 @@
         <f>Sheet1!C60</f>
         <v>0</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>34637</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3940,6 +4068,10 @@
       <c r="D13">
         <f>Sheet1!C61</f>
         <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>28595</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">

--- a/statistics_files/2022/2022.z.holds.down.xlsx
+++ b/statistics_files/2022/2022.z.holds.down.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\GitHub\next_statistics\statistics_files\2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A8DD162-4FEA-40B5-8F85-2F0FC48AC869}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D898A2BC-F410-4AF0-9AF9-3B134F2D5853}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11595" activeTab="1" xr2:uid="{244C3219-FD27-42E2-BE40-F4C149EDCB96}"/>
   </bookViews>
@@ -754,7 +754,7 @@
                   <c:v>34049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>34241</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -1866,7 +1866,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C59" sqref="C59:K59"/>
+      <selection pane="bottomRight" activeCell="C60" sqref="C60:K60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3783,6 +3783,33 @@
       <c r="B60">
         <v>11</v>
       </c>
+      <c r="C60">
+        <v>34241</v>
+      </c>
+      <c r="D60">
+        <v>14789</v>
+      </c>
+      <c r="E60">
+        <v>1555</v>
+      </c>
+      <c r="F60">
+        <v>172</v>
+      </c>
+      <c r="G60">
+        <v>1074</v>
+      </c>
+      <c r="H60">
+        <v>2801</v>
+      </c>
+      <c r="I60">
+        <v>164</v>
+      </c>
+      <c r="J60">
+        <v>14418</v>
+      </c>
+      <c r="K60">
+        <v>19823</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -3802,9 +3829,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1B6667-A9EF-4269-ADF6-439B88ED3FA5}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -4046,11 +4071,11 @@
       </c>
       <c r="D12">
         <f>Sheet1!C60</f>
-        <v>0</v>
+        <v>34241</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>34637</v>
+        <v>396</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
